--- a/data/trans_orig/IP3113_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75859733-2F71-40FB-BA1C-527D30C068FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AF41CF-892C-4FA4-8160-043FC72429EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C9C174F-5733-4B77-8974-5D46F28EF10B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD6B7C1D-3086-40CF-817E-CEF661EFDC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
   <si>
     <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>No, ya no colabora, pero colaboró</t>
@@ -122,19 +122,19 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -143,16 +143,13 @@
     <t>90,72%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>86,82%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>92,92%</t>
+    <t>92,27%</t>
   </si>
   <si>
     <t>97,98%</t>
@@ -161,22 +158,22 @@
     <t>93,19%</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -185,34 +182,34 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -221,37 +218,40 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -263,28 +263,28 @@
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -293,115 +293,115 @@
     <t>86,09%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -410,37 +410,40 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -855,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7EB6D-95CF-47D7-81DC-19B4032CA19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD0CC2A-2675-47AB-BF3B-155D778B8D06}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1191,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
@@ -1200,13 +1203,13 @@
         <v>151394</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>496</v>
@@ -1215,13 +1218,13 @@
         <v>309896</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1236,13 +1239,13 @@
         <v>1569</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1251,13 +1254,13 @@
         <v>391</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1266,13 +1269,13 @@
         <v>1961</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1287,13 +1290,13 @@
         <v>14646</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -1302,13 +1305,13 @@
         <v>6026</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -1317,13 +1320,13 @@
         <v>20671</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,7 +1382,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1391,13 +1394,13 @@
         <v>187159</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>206</v>
@@ -1406,13 +1409,13 @@
         <v>153339</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>431</v>
@@ -1421,13 +1424,13 @@
         <v>340498</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,13 +1445,13 @@
         <v>963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1663,13 +1666,13 @@
         <v>12976</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -1678,13 +1681,13 @@
         <v>17951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1702,13 @@
         <v>35119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -1714,7 +1717,7 @@
         <v>23534</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>105</v>
@@ -1887,10 +1890,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,13 +1908,13 @@
         <v>66640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -1920,13 +1923,13 @@
         <v>51528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -1935,13 +1938,13 @@
         <v>118169</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,7 +2000,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3113_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AF41CF-892C-4FA4-8160-043FC72429EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BC389D-CD1B-4DD9-AEA7-E4F4D4A1CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD6B7C1D-3086-40CF-817E-CEF661EFDC4F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0D34361-4F4C-475D-A474-E993A2B3AC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
-  <si>
-    <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+  <si>
+    <t>Menores según si colabora o ha colaborado como voluntario/a en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,15 +71,6 @@
     <t>No, nunca ha colaborado</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -89,13 +80,22 @@
     <t>100%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>No, ya no colabora, pero colaboró</t>
@@ -107,73 +107,76 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
     <t>Sí, colabora</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -182,268 +185,268 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>81,91%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -858,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD0CC2A-2675-47AB-BF3B-155D778B8D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3685941C-E3A8-4CA5-9425-A34DA130092C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -976,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>39495</v>
+        <v>45279</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -991,10 +994,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>45058</v>
+        <v>41707</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1009,7 +1012,7 @@
         <v>156</v>
       </c>
       <c r="N4" s="7">
-        <v>84554</v>
+        <v>86986</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1078,40 +1081,40 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>2519</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>2464</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>2519</v>
+        <v>2464</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1129,49 +1132,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>81</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>79</v>
       </c>
-      <c r="D7" s="7">
-        <v>42014</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7">
-        <v>81</v>
-      </c>
       <c r="I7" s="7">
-        <v>45058</v>
+        <v>44171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
       </c>
       <c r="N7" s="7">
-        <v>87073</v>
+        <v>89450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,10 +1185,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D8" s="7">
-        <v>158502</v>
+        <v>152089</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1194,37 +1197,37 @@
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>151394</v>
+        <v>165655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>496</v>
       </c>
       <c r="N8" s="7">
-        <v>309896</v>
+        <v>317745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,49 +1236,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1569</v>
+        <v>396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>391</v>
+        <v>1599</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>1961</v>
+        <v>1994</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,49 +1287,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5910</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>14646</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
       <c r="I10" s="7">
-        <v>6026</v>
+        <v>14706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>20671</v>
+        <v>20616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1335,102 +1338,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>256</v>
+      </c>
+      <c r="D11" s="7">
+        <v>158395</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>275</v>
       </c>
-      <c r="D11" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7">
-        <v>256</v>
-      </c>
       <c r="I11" s="7">
-        <v>157811</v>
+        <v>181959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>531</v>
       </c>
       <c r="N11" s="7">
-        <v>332528</v>
+        <v>340355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>206</v>
+      </c>
+      <c r="D12" s="7">
+        <v>151845</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
         <v>225</v>
       </c>
-      <c r="D12" s="7">
-        <v>187159</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="7">
-        <v>206</v>
-      </c>
       <c r="I12" s="7">
-        <v>153339</v>
+        <v>197527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>431</v>
       </c>
       <c r="N12" s="7">
-        <v>340498</v>
+        <v>349373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,46 +1445,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>963</v>
+        <v>794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>805</v>
+        <v>1039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1768</v>
+        <v>1833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,49 +1493,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20433</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
         <v>17</v>
       </c>
-      <c r="D14" s="7">
-        <v>14356</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
       <c r="I14" s="7">
-        <v>21969</v>
+        <v>13923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>36325</v>
+        <v>34356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,102 +1544,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>306</v>
+      </c>
+      <c r="D16" s="7">
+        <v>221271</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
         <v>292</v>
       </c>
-      <c r="D16" s="7">
-        <v>248121</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>306</v>
-      </c>
       <c r="I16" s="7">
-        <v>222929</v>
+        <v>264738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>598</v>
       </c>
       <c r="N16" s="7">
-        <v>471050</v>
+        <v>486011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,46 +1651,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>4976</v>
+        <v>31299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>12976</v>
+        <v>5282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>17951</v>
+        <v>36580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,49 +1699,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21697</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="7">
         <v>41</v>
       </c>
-      <c r="D18" s="7">
-        <v>35119</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
       <c r="I18" s="7">
-        <v>23534</v>
+        <v>34170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
       </c>
       <c r="N18" s="7">
-        <v>58653</v>
+        <v>55867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,49 +1750,49 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
         <v>340</v>
       </c>
-      <c r="D19" s="7">
-        <v>288216</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>304190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>681</v>
       </c>
       <c r="N19" s="7">
-        <v>547654</v>
+        <v>578458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,49 +1803,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>839</v>
+      </c>
+      <c r="D20" s="7">
+        <v>570485</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
         <v>842</v>
       </c>
-      <c r="D20" s="7">
-        <v>633278</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>839</v>
-      </c>
       <c r="I20" s="7">
-        <v>572720</v>
+        <v>669628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1681</v>
       </c>
       <c r="N20" s="7">
-        <v>1205997</v>
+        <v>1240114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,31 +1854,31 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>32489</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="7">
         <v>10</v>
       </c>
-      <c r="D21" s="7">
-        <v>7508</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="7">
-        <v>9</v>
-      </c>
       <c r="I21" s="7">
-        <v>14172</v>
+        <v>7919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>124</v>
@@ -1884,16 +1887,16 @@
         <v>19</v>
       </c>
       <c r="N21" s="7">
-        <v>21680</v>
+        <v>40408</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,49 +1905,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>63</v>
+      </c>
+      <c r="D22" s="7">
+        <v>48040</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="7">
         <v>85</v>
       </c>
-      <c r="D22" s="7">
-        <v>66640</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="7">
-        <v>63</v>
-      </c>
       <c r="I22" s="7">
-        <v>51528</v>
+        <v>65264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
       </c>
       <c r="N22" s="7">
-        <v>118169</v>
+        <v>113304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,54 +1956,54 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>911</v>
+      </c>
+      <c r="D23" s="7">
+        <v>651014</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>937</v>
       </c>
-      <c r="D23" s="7">
-        <v>707426</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7">
-        <v>911</v>
-      </c>
       <c r="I23" s="7">
-        <v>638420</v>
+        <v>742811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
         <v>1848</v>
       </c>
       <c r="N23" s="7">
-        <v>1345846</v>
+        <v>1393825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
